--- a/doc/examples/operation/operation-dependency.xlsx
+++ b/doc/examples/operation/operation-dependency.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-enterprise\doc\examples\operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FCB13B-C866-4EAD-8BDB-EDDFBA330395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461A9BDA-2FCD-49C0-8728-936964BF46F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="-15765" windowWidth="24315" windowHeight="12450" tabRatio="837" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="-15825" windowWidth="23145" windowHeight="13575" tabRatio="837" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sales order" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">item!$A:$A</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'item supplier'!$A$1:$C$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">location!$A:$A</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">operation!$A:$D</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">operation!$A$1:$E$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'operation dependency'!$A:$C</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'operation material'!$A$1:$D$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'operation resource'!$A:$C</definedName>
@@ -342,7 +342,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="117">
   <si>
     <t>Name</t>
   </si>
@@ -675,6 +675,24 @@
   </si>
   <si>
     <t>rocket for 2023 Q2</t>
+  </si>
+  <si>
+    <t>routing</t>
+  </si>
+  <si>
+    <t>Assemble rocket - step 1</t>
+  </si>
+  <si>
+    <t>Assemble rocket - step 2</t>
+  </si>
+  <si>
+    <t>Assemble rocket - step 3</t>
+  </si>
+  <si>
+    <t>Assemble rocket - step 4</t>
+  </si>
+  <si>
+    <t>5 d</t>
   </si>
 </sst>
 </file>
@@ -684,7 +702,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,6 +713,12 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1166,16 +1190,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1214,73 +1238,73 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -1291,40 +1315,40 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -1335,18 +1359,18 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1357,17 +1381,50 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
+  <autoFilter ref="A1" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -1375,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1532,7 +1589,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -1543,7 +1600,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1554,7 +1611,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -1607,8 +1664,52 @@
         <v>1</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C1048575" xr:uid="{00000000-0009-0000-0000-00000D000000}"/>
+  <autoFilter ref="A1:C1048574" xr:uid="{00000000-0009-0000-0000-00000D000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2132,10 +2233,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2143,9 +2244,10 @@
     <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2158,8 +2260,11 @@
       <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2173,7 +2278,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -2187,12 +2292,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -2201,7 +2306,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2215,7 +2320,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2229,7 +2334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2243,7 +2348,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -2257,7 +2362,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -2271,7 +2376,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2285,7 +2390,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2299,7 +2404,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2313,7 +2418,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2327,7 +2432,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2341,7 +2446,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2355,7 +2460,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2369,7 +2474,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2383,8 +2488,77 @@
         <v>47</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D1048576" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
+  <autoFilter ref="A1:E21" xr:uid="{00000000-0001-0000-0B00-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/doc/examples/operation/operation-dependency.xlsx
+++ b/doc/examples/operation/operation-dependency.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-enterprise\doc\examples\operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\johan\workspace\frepple-community\doc\examples\operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461A9BDA-2FCD-49C0-8728-936964BF46F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FB47F7-A293-40F0-81BF-6777F032E6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="-15825" windowWidth="23145" windowHeight="13575" tabRatio="837" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="915" yWindow="-13800" windowWidth="27885" windowHeight="12225" tabRatio="837" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sales order" sheetId="1" r:id="rId1"/>
@@ -342,7 +342,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="111">
   <si>
     <t>Name</t>
   </si>
@@ -500,15 +500,9 @@
     <t>Value</t>
   </si>
   <si>
-    <t>allowsplits</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>Controls whether a sales order or forecast can be split across multiple manufacturing orders during planning. Default: true</t>
-  </si>
-  <si>
     <t>archive.frequency</t>
   </si>
   <si>
@@ -572,12 +566,6 @@
     <t>The number of days the solver should wait for a confirmed replenishment before generating a proposed order. Default:999 (wait indefinitely)</t>
   </si>
   <si>
-    <t>plan.calendar</t>
-  </si>
-  <si>
-    <t>Specifies a calendar with dates to which the plan is aligned</t>
-  </si>
-  <si>
     <t>plan.fixBrokenSupplyPath</t>
   </si>
   <si>
@@ -606,12 +594,6 @@
   </si>
   <si>
     <t>Specifies a minimum delivery date increment (in seconds) used by the planning algorithm in its search. Default: 0</t>
-  </si>
-  <si>
-    <t>plan.planSafetyStockFirst</t>
-  </si>
-  <si>
-    <t>Controls whether safety stock is planned before or after the demand. Accepted values are false (default) and true</t>
   </si>
   <si>
     <t>plan.rotateResources</t>
@@ -1119,10 +1101,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -1151,10 +1133,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -1238,7 +1220,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -1249,7 +1231,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -1260,7 +1242,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -1271,7 +1253,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -1434,7 +1416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1589,7 +1571,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -1600,7 +1582,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1611,7 +1593,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -1666,10 +1648,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1677,10 +1659,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1688,10 +1670,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1699,10 +1681,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1718,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1744,21 +1726,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="b">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1769,18 +1751,18 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
         <v>61</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C5" t="s">
         <v>62</v>
@@ -1790,41 +1772,41 @@
       <c r="A6" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>96</v>
+      <c r="B6" t="s">
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
         <v>73</v>
@@ -1835,7 +1817,7 @@
         <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
         <v>75</v>
@@ -1845,49 +1827,52 @@
       <c r="A11" t="s">
         <v>76</v>
       </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
         <v>87</v>
@@ -1898,47 +1883,14 @@
         <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" t="s">
-        <v>95</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C1048575" xr:uid="{00000000-0009-0000-0000-00000E000000}"/>
+  <autoFilter ref="A1:C1048572" xr:uid="{00000000-0009-0000-0000-00000E000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1968,22 +1920,22 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2007,12 +1959,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2037,32 +1989,32 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -2070,21 +2022,21 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
@@ -2297,7 +2249,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -2490,7 +2442,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
@@ -2499,7 +2451,7 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
         <v>34</v>
@@ -2507,7 +2459,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
         <v>41</v>
@@ -2516,7 +2468,7 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
         <v>34</v>
@@ -2524,7 +2476,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
@@ -2533,7 +2485,7 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
         <v>34</v>
@@ -2541,7 +2493,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
@@ -2550,7 +2502,7 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
         <v>34</v>
@@ -2599,10 +2551,10 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D2">
         <v>-1</v>
@@ -2613,10 +2565,10 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D3">
         <v>-100</v>
@@ -2627,10 +2579,10 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>-200</v>
@@ -2641,10 +2593,10 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>-300</v>
